--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E02505-2BF4-41D8-A716-45C1ADD989FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{D3E02505-2BF4-41D8-A716-45C1ADD989FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11AE4355-7806-4839-B1D1-BE48E67416B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -200,10 +200,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$68</c:f>
+              <c:f>Data!$A$2:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -404,16 +404,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$68</c:f>
+              <c:f>Data!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -614,6 +617,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>8407</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,10 +656,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$68</c:f>
+              <c:f>Data!$A$2:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -854,16 +860,19 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$68</c:f>
+              <c:f>Data!$C$2:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1063,6 +1072,9 @@
                   <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
@@ -1075,7 +1087,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1159,6 +1170,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1194,45 +1219,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2166,9 +2152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2920,6 +2908,17 @@
         <v>8407</v>
       </c>
       <c r="C68">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B69">
+        <v>8661</v>
+      </c>
+      <c r="C69">
         <v>380</v>
       </c>
     </row>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive - belthasar.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D3E02505-2BF4-41D8-A716-45C1ADD989FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11AE4355-7806-4839-B1D1-BE48E67416B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D51C39-D4E2-4EA7-83F2-F554208C3C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Cases</t>
+    <t>DHEC Sum</t>
   </si>
   <si>
-    <t>Deaths</t>
+    <t>Daily Total Cases</t>
+  </si>
+  <si>
+    <t>Test Total - Positive</t>
+  </si>
+  <si>
+    <t>Test Total - Negative</t>
+  </si>
+  <si>
+    <t>Daily Total Deaths</t>
+  </si>
+  <si>
+    <t>DHEC Daily Cases</t>
+  </si>
+  <si>
+    <t>Computed Daily Deaths</t>
   </si>
 </sst>
 </file>
@@ -78,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,7 +199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cases</c:v>
+                  <c:v>Daily Total Cases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -198,428 +214,575 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$69</c:f>
+              <c:f>Data!$A$2:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$69</c:f>
+              <c:f>Data!$B$2:$B$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>456</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>539</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>660</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>774</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>925</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>1083</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>1293</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>1554</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>1917</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>2049</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>2232</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>2417</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>2552</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>2792</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>3065</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>3207</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>3319</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>3439</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>3553</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>3656</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>3931</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>4086</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>4246</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>4377</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>4439</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>4608</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>4761</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>4917</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>5070</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>5253</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>5490</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>5613</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>5735</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>5881</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>6095</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>6258</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>6489</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>6626</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>6757</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>6841</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>6936</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>7142</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>7367</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>7531</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>7653</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>7792</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>7927</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>8030</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>8189</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>8407</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>8661</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8816</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8942</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9056</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9175</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9379</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9895</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10178</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10416</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10623</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10788</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11131</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11394</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11861</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12148</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12415</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deaths</c:v>
+                  <c:v>Daily Total Deaths</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -656,223 +819,289 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$69</c:f>
+              <c:f>Data!$A$2:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>43949</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>43950</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>43951</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>43952</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>43953</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>43954</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>43956</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>43957</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>43958</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>43959</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>43960</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>43961</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>43962</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>43963</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>43964</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>43965</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>43966</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$69</c:f>
+              <c:f>Data!$C$2:$C$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -892,190 +1121,256 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>244</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>275</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>305</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>316</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="63">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="64">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="65">
                   <c:v>343</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="66">
                   <c:v>346</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="67">
                   <c:v>355</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="68">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="69">
                   <c:v>371</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="70">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="71">
                   <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,20 +1465,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2152,29 +2433,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -2184,746 +2488,2430 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>SUM(C3,-(C2))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM(F2,E3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">SUM(C4,-(C3))</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="1">SUM(F3,E4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>43906</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43907</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>47</v>
       </c>
-      <c r="C9">
+      <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>43908</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>60</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>43909</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>81</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>43910</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>125</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>48</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>43911</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>173</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>43912</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>195</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>105</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>43913</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>298</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>43914</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>342</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>43915</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>424</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43916</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>456</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>83</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43917</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>539</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>130</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43918</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>660</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>110</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43919</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>774</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>146</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43920</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>925</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43921</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>1083</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>206</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43922</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <v>1293</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>256</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43923</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>1554</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>148</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43924</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <v>1700</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>215</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43925</v>
       </c>
-      <c r="B27">
+      <c r="B31">
         <v>1917</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>135</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43926</v>
       </c>
-      <c r="B28">
+      <c r="B32">
         <v>2049</v>
       </c>
-      <c r="C28">
+      <c r="C32">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>182</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>43927</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <v>2232</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>43928</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <v>2417</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>135</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>43929</v>
       </c>
-      <c r="B31">
+      <c r="B35">
         <v>2552</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>43930</v>
       </c>
-      <c r="B32">
+      <c r="B36">
         <v>2792</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>267</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>43931</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <v>3065</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>140</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>43932</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <v>3207</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>117</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43933</v>
       </c>
-      <c r="B35">
+      <c r="B39">
         <v>3319</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>43934</v>
       </c>
-      <c r="B36">
+      <c r="B40">
         <v>3439</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>132</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>3597</v>
+      </c>
+      <c r="H40">
+        <v>3439</v>
+      </c>
+      <c r="I40">
+        <v>20013</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>IMDIV(H40,I40)</f>
+        <v>0.171838305101684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>43935</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>3553</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>3687</v>
+      </c>
+      <c r="H41">
+        <v>3553</v>
+      </c>
+      <c r="I41">
+        <v>30319</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" ref="J41:J52" si="2">IMDIV(H41,I41)</f>
+        <v>0.117187242323296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>43936</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>3656</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>267</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>3954</v>
+      </c>
+      <c r="H42">
+        <v>3656</v>
+      </c>
+      <c r="I42">
+        <v>31077</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.117643273160215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>43937</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>3931</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>156</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>4110</v>
+      </c>
+      <c r="H43">
+        <v>3931</v>
+      </c>
+      <c r="I43">
+        <v>32353</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.121503415448336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>43938</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>4086</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>158</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>4268</v>
+      </c>
+      <c r="H44">
+        <v>4086</v>
+      </c>
+      <c r="I44">
+        <v>33554</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.121773857066222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43939</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <v>4246</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>129</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>4397</v>
+      </c>
+      <c r="H45">
+        <v>4246</v>
+      </c>
+      <c r="I45">
+        <v>34587</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.12276288779021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>43940</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <v>4377</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>65</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>4462</v>
+      </c>
+      <c r="H46">
+        <v>4377</v>
+      </c>
+      <c r="I46">
+        <v>36103</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.12123646234385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>43941</v>
       </c>
-      <c r="B43">
+      <c r="B47">
         <v>4439</v>
       </c>
-      <c r="C43">
+      <c r="C47">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>171</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>4633</v>
+      </c>
+      <c r="H47">
+        <v>4439</v>
+      </c>
+      <c r="I47">
+        <v>36838</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.120500570063521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>43942</v>
       </c>
-      <c r="B44">
+      <c r="B48">
         <v>4608</v>
       </c>
-      <c r="C44">
+      <c r="C48">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>156</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>4789</v>
+      </c>
+      <c r="H48">
+        <v>4608</v>
+      </c>
+      <c r="I48">
+        <v>37833</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.121798429942114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>43943</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>4761</v>
       </c>
-      <c r="C45">
+      <c r="C49">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>151</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>4940</v>
+      </c>
+      <c r="H49">
+        <v>4761</v>
+      </c>
+      <c r="I49">
+        <v>38350</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.124146023468057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43944</v>
       </c>
-      <c r="B46">
+      <c r="B50">
         <v>4917</v>
       </c>
-      <c r="C46">
+      <c r="C50">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>170</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>5110</v>
+      </c>
+      <c r="H50">
+        <v>4917</v>
+      </c>
+      <c r="I50">
+        <v>39546</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.124336216052192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>43945</v>
       </c>
-      <c r="B47">
+      <c r="B51">
         <v>5070</v>
       </c>
-      <c r="C47">
+      <c r="C51">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>252</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>5362</v>
+      </c>
+      <c r="H51">
+        <v>5070</v>
+      </c>
+      <c r="I51">
+        <v>41926</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.120927348184897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>43946</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <v>5253</v>
       </c>
-      <c r="C48">
+      <c r="C52">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>151</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>5513</v>
+      </c>
+      <c r="H52">
+        <v>5253</v>
+      </c>
+      <c r="I52">
+        <v>43761</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0.12003839034757</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>43947</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>5490</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>151</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>43948</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>5613</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <v>177</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>107</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>5771</v>
+      </c>
+      <c r="H54">
+        <v>5613</v>
+      </c>
+      <c r="I54">
+        <v>46532</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f>IMDIV(H54,I54)</f>
+        <v>0.120626665520502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>43949</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>5735</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>5884</v>
+      </c>
+      <c r="H55">
+        <v>5735</v>
+      </c>
+      <c r="I55">
+        <v>47380</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f>IMDIV(H55,I55)</f>
+        <v>0.121042634022794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>43950</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>5881</v>
       </c>
-      <c r="C52">
+      <c r="C56">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>197</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>43951</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>6095</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>244</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>157</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>6238</v>
+      </c>
+      <c r="H57">
+        <v>6095</v>
+      </c>
+      <c r="I57">
+        <v>50417</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f t="shared" ref="J57:J60" si="3">IMDIV(H57,I57)</f>
+        <v>0.12089176269909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>43952</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>6258</v>
       </c>
-      <c r="C54">
+      <c r="C58">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>196</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>6434</v>
+      </c>
+      <c r="H58">
+        <v>6258</v>
+      </c>
+      <c r="I58">
+        <v>53121</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.117806517196589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>43953</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>6489</v>
       </c>
-      <c r="C55">
+      <c r="C59">
         <v>267</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>135</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>6569</v>
+      </c>
+      <c r="H59">
+        <v>6489</v>
+      </c>
+      <c r="I59">
+        <v>55127</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.117710015056143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>43954</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <v>6626</v>
       </c>
-      <c r="C56">
+      <c r="C60">
         <v>275</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>121</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>6690</v>
+      </c>
+      <c r="H60">
+        <v>6626</v>
+      </c>
+      <c r="I60">
+        <v>57562</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.115110663284806</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>43955</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <v>6757</v>
       </c>
-      <c r="C57">
+      <c r="C61">
         <v>283</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>43956</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <v>6841</v>
       </c>
-      <c r="C58">
+      <c r="C62">
         <v>296</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>92</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>6872</v>
+      </c>
+      <c r="H62">
+        <v>6841</v>
+      </c>
+      <c r="I62">
+        <v>61925</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f t="shared" ref="J62:J68" si="4">IMDIV(H62,I62)</f>
+        <v>0.11047234557933</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>43957</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <v>6936</v>
       </c>
-      <c r="C59">
+      <c r="C63">
         <v>305</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>7072</v>
+      </c>
+      <c r="H63">
+        <v>6936</v>
+      </c>
+      <c r="I63">
+        <v>70546</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.0983188274317467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>43958</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>7142</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>316</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>231</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>7303</v>
+      </c>
+      <c r="H64">
+        <v>7142</v>
+      </c>
+      <c r="I64">
+        <v>66300</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.107722473604827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>43959</v>
       </c>
-      <c r="B61">
+      <c r="B65">
         <v>7367</v>
       </c>
-      <c r="C61">
+      <c r="C65">
         <v>320</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>174</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>7477</v>
+      </c>
+      <c r="H65">
+        <v>7367</v>
+      </c>
+      <c r="I65">
+        <v>70923</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.103873214613031</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>43960</v>
       </c>
-      <c r="B62">
+      <c r="B66">
         <v>7531</v>
       </c>
-      <c r="C62">
+      <c r="C66">
         <v>330</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>102</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>7579</v>
+      </c>
+      <c r="H66">
+        <v>7531</v>
+      </c>
+      <c r="I66">
+        <v>73432</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.102557468133784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>43961</v>
       </c>
-      <c r="B63">
+      <c r="B67">
         <v>7653</v>
       </c>
-      <c r="C63">
+      <c r="C67">
         <v>343</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>135</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>7714</v>
+      </c>
+      <c r="H67">
+        <v>7653</v>
+      </c>
+      <c r="I67">
+        <v>76804</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.0996432477475132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>43962</v>
       </c>
-      <c r="B64">
+      <c r="B68">
         <v>7792</v>
       </c>
-      <c r="C64">
+      <c r="C68">
         <v>346</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="D68">
+        <f t="shared" ref="D68:D82" si="5">SUM(C68,-(C67))</f>
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>140</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F89" si="6">SUM(F67,E68)</f>
+        <v>7854</v>
+      </c>
+      <c r="H68">
+        <v>7792</v>
+      </c>
+      <c r="I68">
+        <v>82176</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0.0948208722741433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>43963</v>
       </c>
-      <c r="B65">
+      <c r="B69">
         <v>7927</v>
       </c>
-      <c r="C65">
+      <c r="C69">
         <v>355</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>131</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>43964</v>
       </c>
-      <c r="B66">
+      <c r="B70">
         <v>8030</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>362</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>167</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>8152</v>
+      </c>
+      <c r="H70">
+        <v>8030</v>
+      </c>
+      <c r="I70">
+        <v>87836</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f t="shared" ref="J70:J73" si="7">IMDIV(H70,I70)</f>
+        <v>0.0914203743339861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>43965</v>
       </c>
-      <c r="B67">
+      <c r="B71">
         <v>8189</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>371</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>219</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>8371</v>
+      </c>
+      <c r="H71">
+        <v>8189</v>
+      </c>
+      <c r="I71">
+        <v>94346</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0867975324868039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>43966</v>
       </c>
-      <c r="B68">
+      <c r="B72">
         <v>8407</v>
       </c>
-      <c r="C68">
+      <c r="C72">
         <v>380</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>274</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>8645</v>
+      </c>
+      <c r="H72">
+        <v>8407</v>
+      </c>
+      <c r="I72">
+        <v>101209</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0830657352606982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>43967</v>
       </c>
-      <c r="B69">
+      <c r="B73">
         <v>8661</v>
       </c>
-      <c r="C69">
+      <c r="C73">
         <v>380</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>157</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>8802</v>
+      </c>
+      <c r="H73">
+        <v>8661</v>
+      </c>
+      <c r="I73">
+        <v>111670</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>0.0775588788394376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B74">
+        <v>8816</v>
+      </c>
+      <c r="C74">
+        <v>385</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>123</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B75">
+        <v>8942</v>
+      </c>
+      <c r="C75">
+        <v>391</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>132</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>9057</v>
+      </c>
+      <c r="H75">
+        <v>8942</v>
+      </c>
+      <c r="I75">
+        <v>122617</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f t="shared" ref="J75:J76" si="8">IMDIV(H75,I75)</f>
+        <v>0.072926266341535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B76">
+        <v>9056</v>
+      </c>
+      <c r="C76">
+        <v>399</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>139</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>9196</v>
+      </c>
+      <c r="H76">
+        <v>9056</v>
+      </c>
+      <c r="I76">
+        <v>126007</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>0.0718690231495076</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B77">
+        <v>9175</v>
+      </c>
+      <c r="C77">
+        <v>407</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>212</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B78">
+        <v>9379</v>
+      </c>
+      <c r="C78">
+        <v>416</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>248</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>9656</v>
+      </c>
+      <c r="H78">
+        <v>9175</v>
+      </c>
+      <c r="I78">
+        <v>129063</v>
+      </c>
+      <c r="J78" s="2" t="str">
+        <f t="shared" ref="J78:J91" si="9">IMDIV(H78,I78)</f>
+        <v>0.0710893129711846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B79">
+        <v>9638</v>
+      </c>
+      <c r="C79">
+        <v>419</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>234</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="6"/>
+        <v>9890</v>
+      </c>
+      <c r="H79">
+        <v>14361</v>
+      </c>
+      <c r="I79">
+        <v>140385</v>
+      </c>
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.102297253980126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B80">
+        <v>9895</v>
+      </c>
+      <c r="C80">
+        <v>425</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>193</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="6"/>
+        <v>10083</v>
+      </c>
+      <c r="H80">
+        <v>14803</v>
+      </c>
+      <c r="I80">
+        <v>149015</v>
+      </c>
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0993389927188538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B81">
+        <v>10096</v>
+      </c>
+      <c r="C81">
+        <v>435</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>89</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="6"/>
+        <v>10172</v>
+      </c>
+      <c r="H81">
+        <v>15057</v>
+      </c>
+      <c r="I81">
+        <v>153851</v>
+      </c>
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0978674171763589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B82">
+        <v>10178</v>
+      </c>
+      <c r="C82">
+        <v>440</v>
+      </c>
+      <c r="D82">
+        <f>SUM(C82,-(C81))</f>
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>251</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="6"/>
+        <v>10423</v>
+      </c>
+      <c r="H82">
+        <v>15192</v>
+      </c>
+      <c r="I82">
+        <v>155842</v>
+      </c>
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0974833485196545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B83">
+        <v>10416</v>
+      </c>
+      <c r="C83">
+        <v>446</v>
+      </c>
+      <c r="D83">
+        <f>SUM(C83,-(C82))</f>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>207</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="6"/>
+        <v>10630</v>
+      </c>
+      <c r="H83">
+        <v>15801</v>
+      </c>
+      <c r="I83">
+        <v>162318</v>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0973459505415296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B84">
+        <v>10623</v>
+      </c>
+      <c r="C84">
+        <v>466</v>
+      </c>
+      <c r="D84">
+        <f>SUM(C84,-(C83))</f>
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>157</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="6"/>
+        <v>10787</v>
+      </c>
+      <c r="H84">
+        <v>16094</v>
+      </c>
+      <c r="I84">
+        <v>165060</v>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0975039379619532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B85">
+        <v>10788</v>
+      </c>
+      <c r="C85">
+        <v>470</v>
+      </c>
+      <c r="D85">
+        <f>SUM(C85,-(C84))</f>
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>324</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>11111</v>
+      </c>
+      <c r="H85">
+        <v>16327</v>
+      </c>
+      <c r="I85">
+        <v>171461</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0952228203498172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B86">
+        <v>11131</v>
+      </c>
+      <c r="C86">
+        <v>483</v>
+      </c>
+      <c r="D86">
+        <f>SUM(C86,-(C85))</f>
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>415</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="6"/>
+        <v>11526</v>
+      </c>
+      <c r="H86">
+        <v>16921</v>
+      </c>
+      <c r="I86">
+        <v>177126</v>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0955308650339306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B87">
+        <v>11394</v>
+      </c>
+      <c r="C87">
+        <v>487</v>
+      </c>
+      <c r="D87">
+        <f>SUM(C87,-(C86))</f>
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>307</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="6"/>
+        <v>11833</v>
+      </c>
+      <c r="H87">
+        <v>21610</v>
+      </c>
+      <c r="I87">
+        <v>178125</v>
+      </c>
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.121319298245614</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B88">
+        <v>11861</v>
+      </c>
+      <c r="C88">
+        <v>494</v>
+      </c>
+      <c r="D88">
+        <f>SUM(C88,-(C87))</f>
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>294</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="6"/>
+        <v>12127</v>
+      </c>
+      <c r="H88">
+        <v>17892</v>
+      </c>
+      <c r="I88">
+        <v>188355</v>
+      </c>
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0949908417615673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B89">
+        <v>12148</v>
+      </c>
+      <c r="C89">
+        <v>500</v>
+      </c>
+      <c r="D89">
+        <f>SUM(C89,-(C88))</f>
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>285</v>
+      </c>
+      <c r="F89">
+        <f>SUM(F88,E89)</f>
+        <v>12412</v>
+      </c>
+      <c r="H89">
+        <v>18286</v>
+      </c>
+      <c r="I89">
+        <v>192540</v>
+      </c>
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0949724732523112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B90">
+        <v>12415</v>
+      </c>
+      <c r="C90">
+        <v>501</v>
+      </c>
+      <c r="D90">
+        <f>SUM(C90,-(C89))</f>
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>235</v>
+      </c>
+      <c r="F90">
+        <f>SUM(F89,E90)</f>
+        <v>12647</v>
+      </c>
+      <c r="H90">
+        <v>18685</v>
+      </c>
+      <c r="I90">
+        <v>206362</v>
+      </c>
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0905447708395926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B91">
+        <v>12651</v>
+      </c>
+      <c r="C91">
+        <v>518</v>
+      </c>
+      <c r="D91">
+        <f>SUM(C91,-(C90))</f>
+        <v>17</v>
+      </c>
+      <c r="H91">
+        <v>20413</v>
+      </c>
+      <c r="I91">
+        <v>210274</v>
+      </c>
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0970780981005735</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2931,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive - belthasar.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D51C39-D4E2-4EA7-83F2-F554208C3C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D143CD76-BA25-4395-B5A3-10006639EBFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3915" yWindow="2670" windowWidth="23145" windowHeight="12570" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$91</c:f>
+              <c:f>Data!$A$2:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -504,16 +504,19 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$91</c:f>
+              <c:f>Data!$B$2:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -783,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>12651</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,10 +825,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$91</c:f>
+              <c:f>Data!$A$2:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1092,16 +1098,19 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$91</c:f>
+              <c:f>Data!$C$2:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1371,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,14 +4201,14 @@
         <v>346</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D82" si="5">SUM(C68,-(C67))</f>
+        <f t="shared" ref="D68:D81" si="5">SUM(C68,-(C67))</f>
         <v>3</v>
       </c>
       <c r="E68">
         <v>140</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F89" si="6">SUM(F67,E68)</f>
+        <f t="shared" ref="F68:F88" si="6">SUM(F67,E68)</f>
         <v>7854</v>
       </c>
       <c r="H68">
@@ -4496,7 +4508,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J91" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J92" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4607,7 +4619,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f>SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D92" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4639,7 +4651,7 @@
         <v>446</v>
       </c>
       <c r="D83">
-        <f>SUM(C83,-(C82))</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E83">
@@ -4671,7 +4683,7 @@
         <v>466</v>
       </c>
       <c r="D84">
-        <f>SUM(C84,-(C83))</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="E84">
@@ -4703,7 +4715,7 @@
         <v>470</v>
       </c>
       <c r="D85">
-        <f>SUM(C85,-(C84))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E85">
@@ -4735,7 +4747,7 @@
         <v>483</v>
       </c>
       <c r="D86">
-        <f>SUM(C86,-(C85))</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="E86">
@@ -4767,7 +4779,7 @@
         <v>487</v>
       </c>
       <c r="D87">
-        <f>SUM(C87,-(C86))</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E87">
@@ -4799,7 +4811,7 @@
         <v>494</v>
       </c>
       <c r="D88">
-        <f>SUM(C88,-(C87))</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="E88">
@@ -4831,7 +4843,7 @@
         <v>500</v>
       </c>
       <c r="D89">
-        <f>SUM(C89,-(C88))</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E89">
@@ -4863,7 +4875,7 @@
         <v>501</v>
       </c>
       <c r="D90">
-        <f>SUM(C90,-(C89))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E90">
@@ -4895,8 +4907,15 @@
         <v>518</v>
       </c>
       <c r="D91">
-        <f>SUM(C91,-(C90))</f>
+        <f t="shared" si="10"/>
         <v>17</v>
+      </c>
+      <c r="E91">
+        <v>359</v>
+      </c>
+      <c r="F91">
+        <f>SUM(F90,E91)</f>
+        <v>13006</v>
       </c>
       <c r="H91">
         <v>20413</v>
@@ -4907,6 +4926,31 @@
       <c r="J91" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.0970780981005735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B92">
+        <v>13005</v>
+      </c>
+      <c r="C92">
+        <v>525</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>20962</v>
+      </c>
+      <c r="I92">
+        <v>217846</v>
+      </c>
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0962239380112557</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D143CD76-BA25-4395-B5A3-10006639EBFB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26F5150B-EE25-4A72-B20A-F1C20C168845}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2670" windowWidth="23145" windowHeight="12570" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3915" yWindow="2670" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,7 +4619,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D92" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D93" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4942,6 +4942,13 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="E92">
+        <v>447</v>
+      </c>
+      <c r="F92">
+        <f>SUM(F91,E92)</f>
+        <v>13453</v>
+      </c>
       <c r="H92">
         <v>20962</v>
       </c>
@@ -4951,6 +4958,21 @@
       <c r="J92" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.0962239380112557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B93">
+        <v>13453</v>
+      </c>
+      <c r="C93">
+        <v>538</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{26F5150B-EE25-4A72-B20A-F1C20C168845}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D52904B-29FC-4648-818A-B1516F81AE4C}"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="2670" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Computed Daily Deaths</t>
+  </si>
+  <si>
+    <t>DB Error for Test Totals</t>
   </si>
 </sst>
 </file>
@@ -231,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$92</c:f>
+              <c:f>Data!$A$2:$A$94</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -507,16 +510,22 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$92</c:f>
+              <c:f>Data!$B$2:$B$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -789,6 +798,12 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>13005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13453</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,10 +840,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$92</c:f>
+              <c:f>Data!$A$2:$A$94</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1101,16 +1116,22 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$92</c:f>
+              <c:f>Data!$C$2:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1404,12 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,6 +2489,7 @@
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4508,7 +4536,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J92" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J94" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4576,7 +4604,7 @@
         <v>0.0993389927188538</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43975</v>
       </c>
@@ -4608,7 +4636,7 @@
         <v>0.0978674171763589</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43976</v>
       </c>
@@ -4619,7 +4647,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D93" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D94" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4640,7 +4668,7 @@
         <v>0.0974833485196545</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43977</v>
       </c>
@@ -4672,7 +4700,7 @@
         <v>0.0973459505415296</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43978</v>
       </c>
@@ -4704,7 +4732,7 @@
         <v>0.0975039379619532</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43979</v>
       </c>
@@ -4736,7 +4764,7 @@
         <v>0.0952228203498172</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43980</v>
       </c>
@@ -4768,7 +4796,7 @@
         <v>0.0955308650339306</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43981</v>
       </c>
@@ -4800,7 +4828,7 @@
         <v>0.121319298245614</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43982</v>
       </c>
@@ -4832,7 +4860,7 @@
         <v>0.0949908417615673</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43983</v>
       </c>
@@ -4864,7 +4892,7 @@
         <v>0.0949724732523112</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43984</v>
       </c>
@@ -4896,7 +4924,7 @@
         <v>0.0905447708395926</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43985</v>
       </c>
@@ -4928,7 +4956,7 @@
         <v>0.0970780981005735</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43986</v>
       </c>
@@ -4960,7 +4988,7 @@
         <v>0.0962239380112557</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43987</v>
       </c>
@@ -4973,6 +5001,42 @@
       <c r="D93">
         <f t="shared" si="10"/>
         <v>13</v>
+      </c>
+      <c r="E93">
+        <v>512</v>
+      </c>
+      <c r="F93">
+        <f>SUM(F92,E93)</f>
+        <v>13965</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B94">
+        <v>13916</v>
+      </c>
+      <c r="C94">
+        <v>545</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <v>22260</v>
+      </c>
+      <c r="I94">
+        <v>218828</v>
+      </c>
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.101723728224907</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="33" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D52904B-29FC-4648-818A-B1516F81AE4C}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2670" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2474,7 +2474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
@@ -5049,7 +5049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D52904B-29FC-4648-818A-B1516F81AE4C}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D141662D-1BDE-40FC-8918-22F05A6B83AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$94</c:f>
+              <c:f>Data!$A$2:$A$95</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -516,16 +516,19 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$94</c:f>
+              <c:f>Data!$B$2:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -804,6 +807,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>13916</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,10 +846,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$94</c:f>
+              <c:f>Data!$A$2:$A$95</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1122,16 +1128,19 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$94</c:f>
+              <c:f>Data!$C$2:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1410,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,7 +4548,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J94" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J95" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4647,7 +4659,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D94" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D95" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5028,6 +5040,13 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="E94">
+        <v>390</v>
+      </c>
+      <c r="F94">
+        <f>SUM(F93,E94)</f>
+        <v>14355</v>
+      </c>
       <c r="H94">
         <v>22260</v>
       </c>
@@ -5037,6 +5056,31 @@
       <c r="J94" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.101723728224907</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B95">
+        <v>14286</v>
+      </c>
+      <c r="C95">
+        <v>546</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>22758</v>
+      </c>
+      <c r="I95">
+        <v>223573</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.101792255773282</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D141662D-1BDE-40FC-8918-22F05A6B83AE}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1684E357-CB1A-4E33-834A-4DC4C62CACE3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$95</c:f>
+              <c:f>Data!$A$2:$A$96</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -519,16 +519,19 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$95</c:f>
+              <c:f>Data!$B$2:$B$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -810,6 +813,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>14286</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,10 +852,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$95</c:f>
+              <c:f>Data!$A$2:$A$96</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1131,16 +1137,19 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$95</c:f>
+              <c:f>Data!$C$2:$C$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1422,6 +1431,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2484,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,11 +3039,11 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3053,7 +3065,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,7 +3087,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
@@ -3313,11 +3325,11 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>3228</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3339,7 +3351,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>3345</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3357,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -3411,11 +3423,11 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="H41">
         <v>3553</v>
@@ -3443,11 +3455,11 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="H42">
         <v>3656</v>
@@ -3479,7 +3491,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="H43">
         <v>3931</v>
@@ -3511,7 +3523,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>4268</v>
+        <v>4266</v>
       </c>
       <c r="H44">
         <v>4086</v>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="H45">
         <v>4246</v>
@@ -3575,7 +3587,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="H46">
         <v>4377</v>
@@ -3607,7 +3619,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="H47">
         <v>4439</v>
@@ -3639,7 +3651,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>4789</v>
+        <v>4787</v>
       </c>
       <c r="H48">
         <v>4608</v>
@@ -3671,7 +3683,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="H49">
         <v>4761</v>
@@ -3703,7 +3715,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="H50">
         <v>4917</v>
@@ -3735,7 +3747,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="H51">
         <v>5070</v>
@@ -3763,11 +3775,11 @@
         <v>9</v>
       </c>
       <c r="E52">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>5513</v>
+        <v>5510</v>
       </c>
       <c r="H52">
         <v>5253</v>
@@ -3799,7 +3811,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>5664</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3817,11 +3829,11 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="H54">
         <v>5613</v>
@@ -3853,7 +3865,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>5884</v>
+        <v>5882</v>
       </c>
       <c r="H55">
         <v>5735</v>
@@ -3881,11 +3893,11 @@
         <v>11</v>
       </c>
       <c r="E56">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>6081</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3903,11 +3915,11 @@
         <v>41</v>
       </c>
       <c r="E57">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>6238</v>
+        <v>6236</v>
       </c>
       <c r="H57">
         <v>6095</v>
@@ -3935,11 +3947,11 @@
         <v>12</v>
       </c>
       <c r="E58">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>6434</v>
+        <v>6436</v>
       </c>
       <c r="H58">
         <v>6258</v>
@@ -3967,11 +3979,11 @@
         <v>11</v>
       </c>
       <c r="E59">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>6569</v>
+        <v>6572</v>
       </c>
       <c r="H59">
         <v>6489</v>
@@ -4003,7 +4015,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>6690</v>
+        <v>6693</v>
       </c>
       <c r="H60">
         <v>6626</v>
@@ -4035,7 +4047,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>6780</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4057,7 +4069,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>6872</v>
+        <v>6875</v>
       </c>
       <c r="H62">
         <v>6841</v>
@@ -4089,7 +4101,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>7072</v>
+        <v>7075</v>
       </c>
       <c r="H63">
         <v>6936</v>
@@ -4117,11 +4129,11 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>7303</v>
+        <v>7307</v>
       </c>
       <c r="H64">
         <v>7142</v>
@@ -4153,7 +4165,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>7477</v>
+        <v>7481</v>
       </c>
       <c r="H65">
         <v>7367</v>
@@ -4181,11 +4193,11 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>7579</v>
+        <v>7580</v>
       </c>
       <c r="H66">
         <v>7531</v>
@@ -4217,7 +4229,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>7714</v>
+        <v>7715</v>
       </c>
       <c r="H67">
         <v>7653</v>
@@ -4249,7 +4261,7 @@
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F88" si="6">SUM(F67,E68)</f>
-        <v>7854</v>
+        <v>7855</v>
       </c>
       <c r="H68">
         <v>7792</v>
@@ -4277,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="E69">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F69">
         <f t="shared" si="6"/>
@@ -4299,11 +4311,11 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
-        <v>8152</v>
+        <v>8154</v>
       </c>
       <c r="H70">
         <v>8030</v>
@@ -4335,7 +4347,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
-        <v>8371</v>
+        <v>8373</v>
       </c>
       <c r="H71">
         <v>8189</v>
@@ -4363,11 +4375,11 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F72">
         <f t="shared" si="6"/>
-        <v>8645</v>
+        <v>8649</v>
       </c>
       <c r="H72">
         <v>8407</v>
@@ -4395,11 +4407,11 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73">
         <f t="shared" si="6"/>
-        <v>8802</v>
+        <v>8805</v>
       </c>
       <c r="H73">
         <v>8661</v>
@@ -4431,7 +4443,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
-        <v>8925</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4453,7 +4465,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="6"/>
-        <v>9057</v>
+        <v>9060</v>
       </c>
       <c r="H75">
         <v>8942</v>
@@ -4481,11 +4493,11 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F76">
         <f t="shared" si="6"/>
-        <v>9196</v>
+        <v>9201</v>
       </c>
       <c r="H76">
         <v>9056</v>
@@ -4517,7 +4529,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="6"/>
-        <v>9408</v>
+        <v>9413</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4535,11 +4547,11 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F78">
         <f t="shared" si="6"/>
-        <v>9656</v>
+        <v>9663</v>
       </c>
       <c r="H78">
         <v>9175</v>
@@ -4548,7 +4560,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J95" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J96" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4567,11 +4579,11 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F79">
         <f t="shared" si="6"/>
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="H79">
         <v>14361</v>
@@ -4599,11 +4611,11 @@
         <v>6</v>
       </c>
       <c r="E80">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F80">
         <f t="shared" si="6"/>
-        <v>10083</v>
+        <v>10085</v>
       </c>
       <c r="H80">
         <v>14803</v>
@@ -4631,11 +4643,11 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F81">
         <f t="shared" si="6"/>
-        <v>10172</v>
+        <v>10175</v>
       </c>
       <c r="H81">
         <v>15057</v>
@@ -4659,15 +4671,15 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D95" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D96" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F82">
         <f t="shared" si="6"/>
-        <v>10423</v>
+        <v>10430</v>
       </c>
       <c r="H82">
         <v>15192</v>
@@ -4695,11 +4707,11 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F83">
         <f t="shared" si="6"/>
-        <v>10630</v>
+        <v>10635</v>
       </c>
       <c r="H83">
         <v>15801</v>
@@ -4731,7 +4743,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="6"/>
-        <v>10787</v>
+        <v>10792</v>
       </c>
       <c r="H84">
         <v>16094</v>
@@ -4759,11 +4771,11 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F85">
         <f t="shared" si="6"/>
-        <v>11111</v>
+        <v>11115</v>
       </c>
       <c r="H85">
         <v>16327</v>
@@ -4791,11 +4803,11 @@
         <v>13</v>
       </c>
       <c r="E86">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F86">
         <f t="shared" si="6"/>
-        <v>11526</v>
+        <v>11519</v>
       </c>
       <c r="H86">
         <v>16921</v>
@@ -4823,11 +4835,11 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F87">
         <f t="shared" si="6"/>
-        <v>11833</v>
+        <v>11831</v>
       </c>
       <c r="H87">
         <v>21610</v>
@@ -4855,11 +4867,11 @@
         <v>7</v>
       </c>
       <c r="E88">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="F88">
         <f t="shared" si="6"/>
-        <v>12127</v>
+        <v>12100</v>
       </c>
       <c r="H88">
         <v>17892</v>
@@ -4887,11 +4899,11 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="F89">
         <f>SUM(F88,E89)</f>
-        <v>12412</v>
+        <v>12362</v>
       </c>
       <c r="H89">
         <v>18286</v>
@@ -4919,11 +4931,11 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F90">
         <f>SUM(F89,E90)</f>
-        <v>12647</v>
+        <v>12588</v>
       </c>
       <c r="H90">
         <v>18685</v>
@@ -4951,11 +4963,11 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F91">
         <f>SUM(F90,E91)</f>
-        <v>13006</v>
+        <v>12941</v>
       </c>
       <c r="H91">
         <v>20413</v>
@@ -4983,11 +4995,11 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="F92">
         <f>SUM(F91,E92)</f>
-        <v>13453</v>
+        <v>13364</v>
       </c>
       <c r="H92">
         <v>20962</v>
@@ -5015,11 +5027,11 @@
         <v>13</v>
       </c>
       <c r="E93">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F93">
         <f>SUM(F92,E93)</f>
-        <v>13965</v>
+        <v>13871</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" t="s">
@@ -5041,11 +5053,11 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F94">
         <f>SUM(F93,E94)</f>
-        <v>14355</v>
+        <v>14253</v>
       </c>
       <c r="H94">
         <v>22260</v>
@@ -5072,6 +5084,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="E95">
+        <v>542</v>
+      </c>
+      <c r="F95">
+        <f>SUM(F94,E95)</f>
+        <v>14795</v>
+      </c>
       <c r="H95">
         <v>22758</v>
       </c>
@@ -5081,6 +5100,31 @@
       <c r="J95" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.101792255773282</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B96">
+        <v>14800</v>
+      </c>
+      <c r="C96">
+        <v>557</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="H96">
+        <v>23401</v>
+      </c>
+      <c r="I96">
+        <v>229861</v>
+      </c>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.101805003893657</v>
       </c>
     </row>
   </sheetData>
@@ -5093,7 +5137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg318942-my.sharepoint.com/personal/chris_belthasar_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="114_{26FBAA45-BD6F-4843-BF96-27953760BFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1684E357-CB1A-4E33-834A-4DC4C62CACE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F33A39-7FF3-49B2-A57D-8BB280DB5936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$96</c:f>
+              <c:f>Data!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -522,16 +522,19 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$96</c:f>
+              <c:f>Data!$B$2:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -816,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,10 +858,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$96</c:f>
+              <c:f>Data!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1140,16 +1146,19 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$96</c:f>
+              <c:f>Data!$C$2:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1434,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,7 +4572,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J96" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J97" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4671,7 +4683,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D96" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D97" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5116,6 +5128,13 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
+      <c r="E96">
+        <v>434</v>
+      </c>
+      <c r="F96">
+        <f>SUM(F95,E96)</f>
+        <v>15229</v>
+      </c>
       <c r="H96">
         <v>23401</v>
       </c>
@@ -5125,6 +5144,31 @@
       <c r="J96" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.101805003893657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B97">
+        <v>15228</v>
+      </c>
+      <c r="C97">
+        <v>568</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="H97">
+        <v>23956</v>
+      </c>
+      <c r="I97">
+        <v>232754</v>
+      </c>
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.102924117308403</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F33A39-7FF3-49B2-A57D-8BB280DB5936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A366EE-7B8D-41C5-BD67-3546B9106A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$97</c:f>
+              <c:f>Data!$A$2:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -525,16 +525,19 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$97</c:f>
+              <c:f>Data!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -822,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>15228</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,10 +864,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$97</c:f>
+              <c:f>Data!$A$2:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1149,16 +1155,19 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$97</c:f>
+              <c:f>Data!$C$2:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1446,6 +1455,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,7 +4584,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J97" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J98" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4683,7 +4695,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D97" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D98" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4914,7 +4926,7 @@
         <v>262</v>
       </c>
       <c r="F89">
-        <f>SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F97" si="11">SUM(F88,E89)</f>
         <v>12362</v>
       </c>
       <c r="H89">
@@ -4946,7 +4958,7 @@
         <v>226</v>
       </c>
       <c r="F90">
-        <f>SUM(F89,E90)</f>
+        <f t="shared" si="11"/>
         <v>12588</v>
       </c>
       <c r="H90">
@@ -4978,7 +4990,7 @@
         <v>353</v>
       </c>
       <c r="F91">
-        <f>SUM(F90,E91)</f>
+        <f t="shared" si="11"/>
         <v>12941</v>
       </c>
       <c r="H91">
@@ -5010,7 +5022,7 @@
         <v>423</v>
       </c>
       <c r="F92">
-        <f>SUM(F91,E92)</f>
+        <f t="shared" si="11"/>
         <v>13364</v>
       </c>
       <c r="H92">
@@ -5042,7 +5054,7 @@
         <v>507</v>
       </c>
       <c r="F93">
-        <f>SUM(F92,E93)</f>
+        <f t="shared" si="11"/>
         <v>13871</v>
       </c>
       <c r="J93" s="2"/>
@@ -5068,7 +5080,7 @@
         <v>382</v>
       </c>
       <c r="F94">
-        <f>SUM(F93,E94)</f>
+        <f t="shared" si="11"/>
         <v>14253</v>
       </c>
       <c r="H94">
@@ -5100,7 +5112,7 @@
         <v>542</v>
       </c>
       <c r="F95">
-        <f>SUM(F94,E95)</f>
+        <f t="shared" si="11"/>
         <v>14795</v>
       </c>
       <c r="H95">
@@ -5132,7 +5144,7 @@
         <v>434</v>
       </c>
       <c r="F96">
-        <f>SUM(F95,E96)</f>
+        <f t="shared" si="11"/>
         <v>15229</v>
       </c>
       <c r="H96">
@@ -5160,6 +5172,13 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
+      <c r="E97">
+        <v>528</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>15757</v>
+      </c>
       <c r="H97">
         <v>23956</v>
       </c>
@@ -5169,6 +5188,31 @@
       <c r="J97" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.102924117308403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B98">
+        <v>15759</v>
+      </c>
+      <c r="C98">
+        <v>575</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>24604</v>
+      </c>
+      <c r="I98">
+        <v>236773</v>
+      </c>
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.103913875315175</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A366EE-7B8D-41C5-BD67-3546B9106A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D5EAE-2193-4D59-9A79-67CD043C0EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$98</c:f>
+              <c:f>Data!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -528,16 +528,19 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$98</c:f>
+              <c:f>Data!$B$2:$B$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -828,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>15759</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,10 +870,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$98</c:f>
+              <c:f>Data!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1158,16 +1164,19 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$98</c:f>
+              <c:f>Data!$C$2:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1458,6 +1467,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2520,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,7 +4596,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J98" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J99" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4695,7 +4707,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D98" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D99" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4926,7 +4938,7 @@
         <v>262</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F97" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F98" si="11">SUM(F88,E89)</f>
         <v>12362</v>
       </c>
       <c r="H89">
@@ -5204,6 +5216,13 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="E98">
+        <v>687</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>16444</v>
+      </c>
       <c r="H98">
         <v>24604</v>
       </c>
@@ -5213,6 +5232,31 @@
       <c r="J98" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.103913875315175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B99">
+        <v>16441</v>
+      </c>
+      <c r="C99">
+        <v>588</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="H99">
+        <v>24101</v>
+      </c>
+      <c r="I99">
+        <v>241250</v>
+      </c>
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.099900518134715</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D5EAE-2193-4D59-9A79-67CD043C0EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D1813D-C121-4E53-9601-71AE48DA35E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>Data!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -531,16 +531,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$99</c:f>
+              <c:f>Data!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -834,6 +840,12 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>16441</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17170</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,10 +882,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>Data!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1167,16 +1179,22 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$99</c:f>
+              <c:f>Data!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1470,6 +1488,12 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,11 +4371,11 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F70">
         <f t="shared" si="6"/>
-        <v>8154</v>
+        <v>8157</v>
       </c>
       <c r="H70">
         <v>8030</v>
@@ -4379,11 +4403,11 @@
         <v>9</v>
       </c>
       <c r="E71">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
-        <v>8373</v>
+        <v>8378</v>
       </c>
       <c r="H71">
         <v>8189</v>
@@ -4411,11 +4435,11 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F72">
         <f t="shared" si="6"/>
-        <v>8649</v>
+        <v>8656</v>
       </c>
       <c r="H72">
         <v>8407</v>
@@ -4443,11 +4467,11 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F73">
         <f t="shared" si="6"/>
-        <v>8805</v>
+        <v>8813</v>
       </c>
       <c r="H73">
         <v>8661</v>
@@ -4475,11 +4499,11 @@
         <v>5</v>
       </c>
       <c r="E74">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
-        <v>8928</v>
+        <v>8937</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4501,7 +4525,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="6"/>
-        <v>9060</v>
+        <v>9069</v>
       </c>
       <c r="H75">
         <v>8942</v>
@@ -4529,11 +4553,11 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F76">
         <f t="shared" si="6"/>
-        <v>9201</v>
+        <v>9211</v>
       </c>
       <c r="H76">
         <v>9056</v>
@@ -4565,7 +4589,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="6"/>
-        <v>9413</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4583,11 +4607,11 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F78">
         <f t="shared" si="6"/>
-        <v>9663</v>
+        <v>9672</v>
       </c>
       <c r="H78">
         <v>9175</v>
@@ -4596,7 +4620,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J99" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J101" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4615,11 +4639,11 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F79">
         <f t="shared" si="6"/>
-        <v>9895</v>
+        <v>9905</v>
       </c>
       <c r="H79">
         <v>14361</v>
@@ -4651,7 +4675,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="6"/>
-        <v>10085</v>
+        <v>10095</v>
       </c>
       <c r="H80">
         <v>14803</v>
@@ -4679,11 +4703,11 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F81">
         <f t="shared" si="6"/>
-        <v>10175</v>
+        <v>10187</v>
       </c>
       <c r="H81">
         <v>15057</v>
@@ -4707,15 +4731,15 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D99" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D101" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F82">
         <f t="shared" si="6"/>
-        <v>10430</v>
+        <v>10444</v>
       </c>
       <c r="H82">
         <v>15192</v>
@@ -4743,11 +4767,11 @@
         <v>6</v>
       </c>
       <c r="E83">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F83">
         <f t="shared" si="6"/>
-        <v>10635</v>
+        <v>10662</v>
       </c>
       <c r="H83">
         <v>15801</v>
@@ -4775,11 +4799,11 @@
         <v>20</v>
       </c>
       <c r="E84">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F84">
         <f t="shared" si="6"/>
-        <v>10792</v>
+        <v>10823</v>
       </c>
       <c r="H84">
         <v>16094</v>
@@ -4807,11 +4831,11 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F85">
         <f t="shared" si="6"/>
-        <v>11115</v>
+        <v>11131</v>
       </c>
       <c r="H85">
         <v>16327</v>
@@ -4839,11 +4863,11 @@
         <v>13</v>
       </c>
       <c r="E86">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F86">
         <f t="shared" si="6"/>
-        <v>11519</v>
+        <v>11527</v>
       </c>
       <c r="H86">
         <v>16921</v>
@@ -4871,11 +4895,11 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F87">
         <f t="shared" si="6"/>
-        <v>11831</v>
+        <v>11837</v>
       </c>
       <c r="H87">
         <v>21610</v>
@@ -4903,11 +4927,11 @@
         <v>7</v>
       </c>
       <c r="E88">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F88">
         <f t="shared" si="6"/>
-        <v>12100</v>
+        <v>12098</v>
       </c>
       <c r="H88">
         <v>17892</v>
@@ -4935,11 +4959,11 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F98" si="11">SUM(F88,E89)</f>
-        <v>12362</v>
+        <f t="shared" ref="F89:F100" si="11">SUM(F88,E89)</f>
+        <v>12363</v>
       </c>
       <c r="H89">
         <v>18286</v>
@@ -4967,11 +4991,11 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F90">
         <f t="shared" si="11"/>
-        <v>12588</v>
+        <v>12594</v>
       </c>
       <c r="H90">
         <v>18685</v>
@@ -4999,11 +5023,11 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F91">
         <f t="shared" si="11"/>
-        <v>12941</v>
+        <v>12959</v>
       </c>
       <c r="H91">
         <v>20413</v>
@@ -5031,11 +5055,11 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F92">
         <f t="shared" si="11"/>
-        <v>13364</v>
+        <v>13365</v>
       </c>
       <c r="H92">
         <v>20962</v>
@@ -5063,11 +5087,11 @@
         <v>13</v>
       </c>
       <c r="E93">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F93">
         <f t="shared" si="11"/>
-        <v>13871</v>
+        <v>13866</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" t="s">
@@ -5089,11 +5113,11 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="F94">
         <f t="shared" si="11"/>
-        <v>14253</v>
+        <v>14227</v>
       </c>
       <c r="H94">
         <v>22260</v>
@@ -5121,11 +5145,11 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F95">
         <f t="shared" si="11"/>
-        <v>14795</v>
+        <v>14766</v>
       </c>
       <c r="H95">
         <v>22758</v>
@@ -5153,11 +5177,11 @@
         <v>11</v>
       </c>
       <c r="E96">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F96">
         <f t="shared" si="11"/>
-        <v>15229</v>
+        <v>15201</v>
       </c>
       <c r="H96">
         <v>23401</v>
@@ -5185,11 +5209,11 @@
         <v>11</v>
       </c>
       <c r="E97">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F97">
         <f t="shared" si="11"/>
-        <v>15757</v>
+        <v>15727</v>
       </c>
       <c r="H97">
         <v>23956</v>
@@ -5217,11 +5241,11 @@
         <v>7</v>
       </c>
       <c r="E98">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F98">
         <f t="shared" si="11"/>
-        <v>16444</v>
+        <v>16405</v>
       </c>
       <c r="H98">
         <v>24604</v>
@@ -5248,6 +5272,13 @@
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
+      <c r="E99">
+        <v>772</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="11"/>
+        <v>17177</v>
+      </c>
       <c r="H99">
         <v>24101</v>
       </c>
@@ -5257,6 +5288,63 @@
       <c r="J99" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.099900518134715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B100">
+        <v>17170</v>
+      </c>
+      <c r="C100">
+        <v>593</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>770</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>17947</v>
+      </c>
+      <c r="H100">
+        <v>25043</v>
+      </c>
+      <c r="I100">
+        <v>247085</v>
+      </c>
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.10135378513467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B101">
+        <v>17955</v>
+      </c>
+      <c r="C101">
+        <v>599</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="H101">
+        <v>26039</v>
+      </c>
+      <c r="I101">
+        <v>252844</v>
+      </c>
+      <c r="J101" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.102984448909209</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D1813D-C121-4E53-9601-71AE48DA35E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4CA785-8737-46A9-8246-63D97257869B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$101</c:f>
+              <c:f>Data!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -537,16 +537,19 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$101</c:f>
+              <c:f>Data!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -846,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>17955</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>18795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,10 +888,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$101</c:f>
+              <c:f>Data!$A$2:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1185,16 +1191,19 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$101</c:f>
+              <c:f>Data!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1494,6 +1503,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4620,7 +4632,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J101" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J102" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4731,7 +4743,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D101" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D102" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4962,7 +4974,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F100" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F101" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5305,11 +5317,11 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>770</v>
+        <v>808</v>
       </c>
       <c r="F100">
         <f t="shared" si="11"/>
-        <v>17947</v>
+        <v>17985</v>
       </c>
       <c r="H100">
         <v>25043</v>
@@ -5336,6 +5348,13 @@
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
+      <c r="E101">
+        <v>799</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>18784</v>
+      </c>
       <c r="H101">
         <v>26039</v>
       </c>
@@ -5345,6 +5364,31 @@
       <c r="J101" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.102984448909209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B102">
+        <v>18795</v>
+      </c>
+      <c r="C102">
+        <v>600</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>27003</v>
+      </c>
+      <c r="I102">
+        <v>259097</v>
+      </c>
+      <c r="J102" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.104219655187053</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5402,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4CA785-8737-46A9-8246-63D97257869B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06D52E0-7A82-46F1-B50F-5CF926E24D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$102</c:f>
+              <c:f>Data!$A$2:$A$103</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -540,16 +540,19 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$102</c:f>
+              <c:f>Data!$B$2:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -852,6 +855,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>18795</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,10 +894,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$102</c:f>
+              <c:f>Data!$A$2:$A$103</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1194,16 +1200,19 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$102</c:f>
+              <c:f>Data!$C$2:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1506,6 +1515,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2568,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,7 +4644,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J102" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J103" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4743,7 +4755,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D102" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D103" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4974,7 +4986,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F101" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F102" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5380,6 +5392,13 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
+      <c r="E102">
+        <v>582</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>19366</v>
+      </c>
       <c r="H102">
         <v>27003</v>
       </c>
@@ -5389,6 +5408,31 @@
       <c r="J102" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.104219655187053</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B103">
+        <v>19378</v>
+      </c>
+      <c r="C103">
+        <v>602</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>27755</v>
+      </c>
+      <c r="I103">
+        <v>293754</v>
+      </c>
+      <c r="J103" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.0944838197947943</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06D52E0-7A82-46F1-B50F-5CF926E24D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E19145-9D83-4631-84E1-C7687E295EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="5370" yWindow="2430" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$103</c:f>
+              <c:f>Data!$A$2:$A$105</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -543,16 +543,22 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$103</c:f>
+              <c:f>Data!$B$2:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -858,6 +864,12 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>19378</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19990</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>20551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,10 +906,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$103</c:f>
+              <c:f>Data!$A$2:$A$105</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1203,16 +1215,22 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$103</c:f>
+              <c:f>Data!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1518,6 +1536,12 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4644,7 +4668,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J103" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J105" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4755,7 +4779,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D103" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D105" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -4986,7 +5010,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F102" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F104" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5393,11 +5417,11 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F102">
         <f t="shared" si="11"/>
-        <v>19366</v>
+        <v>19394</v>
       </c>
       <c r="H102">
         <v>27003</v>
@@ -5424,6 +5448,13 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="E103">
+        <v>595</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="11"/>
+        <v>19989</v>
+      </c>
       <c r="H103">
         <v>27755</v>
       </c>
@@ -5433,6 +5464,63 @@
       <c r="J103" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.0944838197947943</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B104">
+        <v>19990</v>
+      </c>
+      <c r="C104">
+        <v>607</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>577</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="11"/>
+        <v>20566</v>
+      </c>
+      <c r="H104">
+        <v>28573</v>
+      </c>
+      <c r="I104">
+        <v>270460</v>
+      </c>
+      <c r="J104" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.10564593655254</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B105">
+        <v>20551</v>
+      </c>
+      <c r="C105">
+        <v>617</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H105">
+        <v>29296</v>
+      </c>
+      <c r="I105">
+        <v>275135</v>
+      </c>
+      <c r="J105" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.106478637759645</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E19145-9D83-4631-84E1-C7687E295EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BD9891-BAD1-4357-9346-120562ED4C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5370" yWindow="2430" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$105</c:f>
+              <c:f>Data!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -549,16 +549,19 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$105</c:f>
+              <c:f>Data!$B$2:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -870,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>20551</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,10 +912,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$105</c:f>
+              <c:f>Data!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1221,16 +1227,19 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$105</c:f>
+              <c:f>Data!$C$2:$C$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1542,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,7 +4680,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J105" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J106" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4779,7 +4791,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D105" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D106" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5521,6 +5533,31 @@
       <c r="J105" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.106478637759645</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B106">
+        <v>21553</v>
+      </c>
+      <c r="C106">
+        <v>621</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>30526</v>
+      </c>
+      <c r="I106">
+        <v>282684</v>
+      </c>
+      <c r="J106" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.10798630272672</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41BD9891-BAD1-4357-9346-120562ED4C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D850F134-C34B-47AE-A87B-8D747D92FD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="2430" windowWidth="23145" windowHeight="12570" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$106</c:f>
+              <c:f>Data!$A$2:$A$107</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -552,16 +552,19 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$106</c:f>
+              <c:f>Data!$B$2:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -876,6 +879,9 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>21553</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,10 +918,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$106</c:f>
+              <c:f>Data!$A$2:$A$107</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1230,16 +1236,19 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$106</c:f>
+              <c:f>Data!$C$2:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="105"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1554,6 +1563,9 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4680,7 +4692,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J106" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J107" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4791,7 +4803,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D106" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D107" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5022,7 +5034,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F104" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F106" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5524,6 +5536,13 @@
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
+      <c r="E105">
+        <v>985</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="11"/>
+        <v>21551</v>
+      </c>
       <c r="H105">
         <v>29296</v>
       </c>
@@ -5549,6 +5568,13 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="E106">
+        <v>1100</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="11"/>
+        <v>22651</v>
+      </c>
       <c r="H106">
         <v>30526</v>
       </c>
@@ -5558,6 +5584,31 @@
       <c r="J106" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.10798630272672</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B107">
+        <v>22608</v>
+      </c>
+      <c r="C107">
+        <v>639</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="H107">
+        <v>31806</v>
+      </c>
+      <c r="I107">
+        <v>289883</v>
+      </c>
+      <c r="J107" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.109720128465622</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D850F134-C34B-47AE-A87B-8D747D92FD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{901D53C6-0249-47C7-9C2F-D02479D1E8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$107</c:f>
+              <c:f>Data!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -555,16 +555,19 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$107</c:f>
+              <c:f>Data!$B$2:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -882,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>22608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,10 +924,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$107</c:f>
+              <c:f>Data!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1239,16 +1245,19 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$107</c:f>
+              <c:f>Data!$C$2:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1566,6 +1575,9 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,7 +4704,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J107" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J108" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4803,7 +4815,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D107" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D108" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5034,7 +5046,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F106" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F107" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5600,6 +5612,13 @@
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
+      <c r="E107">
+        <v>1200</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="11"/>
+        <v>23851</v>
+      </c>
       <c r="H107">
         <v>31806</v>
       </c>
@@ -5609,6 +5628,31 @@
       <c r="J107" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.109720128465622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B108">
+        <v>23756</v>
+      </c>
+      <c r="C108">
+        <v>644</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="H108">
+        <v>33160</v>
+      </c>
+      <c r="I108">
+        <v>297264</v>
+      </c>
+      <c r="J108" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.111550675493837</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901D53C6-0249-47C7-9C2F-D02479D1E8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BFE1FB-B24B-42E3-88C8-D337CFC82B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$108</c:f>
+              <c:f>Data!$A$2:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -558,16 +558,22 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$108</c:f>
+              <c:f>Data!$B$2:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -888,6 +894,12 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>23756</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24662</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,10 +936,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$108</c:f>
+              <c:f>Data!$A$2:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1248,16 +1260,22 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$108</c:f>
+              <c:f>Data!$C$2:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1578,6 +1596,12 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4728,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J108" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J110" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4815,7 +4839,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D108" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D109" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5046,7 +5070,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F107" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F109" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5644,6 +5668,13 @@
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="E108">
+        <v>907</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="11"/>
+        <v>24758</v>
+      </c>
       <c r="H108">
         <v>33160</v>
       </c>
@@ -5653,6 +5684,63 @@
       <c r="J108" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.111550675493837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B109">
+        <v>24662</v>
+      </c>
+      <c r="C109">
+        <v>653</v>
+      </c>
+      <c r="D109">
+        <f>SUM(C109,-(C108))</f>
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>1002</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="11"/>
+        <v>25760</v>
+      </c>
+      <c r="H109">
+        <v>34220</v>
+      </c>
+      <c r="I109">
+        <v>303249</v>
+      </c>
+      <c r="J109" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.11284456008099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B110">
+        <v>25666</v>
+      </c>
+      <c r="C110">
+        <v>659</v>
+      </c>
+      <c r="D110">
+        <f>SUM(C110,-(C109))</f>
+        <v>6</v>
+      </c>
+      <c r="H110">
+        <v>35409</v>
+      </c>
+      <c r="I110">
+        <v>311784</v>
+      </c>
+      <c r="J110" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.113569009314141</v>
       </c>
     </row>
   </sheetData>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49BFE1FB-B24B-42E3-88C8-D337CFC82B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD2FD34-924F-4290-B26F-745C54A121BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3375" yWindow="1800" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$110</c:f>
+              <c:f>Data!$A$2:$A$111</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -564,16 +564,19 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$110</c:f>
+              <c:f>Data!$B$2:$B$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -900,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>25666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>26572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,10 +942,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$110</c:f>
+              <c:f>Data!$A$2:$A$111</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1266,16 +1272,19 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$110</c:f>
+              <c:f>Data!$C$2:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1602,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,7 +4740,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J110" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J111" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -4839,7 +4851,7 @@
         <v>440</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D109" si="10">SUM(C82,-(C81))</f>
+        <f t="shared" ref="D82:D108" si="10">SUM(C82,-(C81))</f>
         <v>5</v>
       </c>
       <c r="E82">
@@ -5070,7 +5082,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F109" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F110" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5732,6 +5744,13 @@
         <f>SUM(C110,-(C109))</f>
         <v>6</v>
       </c>
+      <c r="E110">
+        <v>890</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="11"/>
+        <v>26650</v>
+      </c>
       <c r="H110">
         <v>35409</v>
       </c>
@@ -5741,6 +5760,31 @@
       <c r="J110" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.113569009314141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B111">
+        <v>26572</v>
+      </c>
+      <c r="C111">
+        <v>673</v>
+      </c>
+      <c r="D111">
+        <f>SUM(C111,-(C110))</f>
+        <v>14</v>
+      </c>
+      <c r="H111">
+        <v>36467</v>
+      </c>
+      <c r="I111">
+        <v>316283</v>
+      </c>
+      <c r="J111" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.115298640774243</v>
       </c>
     </row>
   </sheetData>
@@ -5753,7 +5797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD2FD34-924F-4290-B26F-745C54A121BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{650B5E86-74C4-45A4-93C5-015D319C42F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1800" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3135" yWindow="1170" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$111</c:f>
+              <c:f>Data!$A$2:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -567,16 +567,22 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$111</c:f>
+              <c:f>Data!$B$2:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -906,6 +912,12 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>26572</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27842</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>28962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,10 +954,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$111</c:f>
+              <c:f>Data!$A$2:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1275,16 +1287,22 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$111</c:f>
+              <c:f>Data!$C$2:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1614,6 +1632,12 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,7 +4764,7 @@
         <v>129063</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" ref="J78:J111" si="9">IMDIV(H78,I78)</f>
+        <f t="shared" ref="J78:J113" si="9">IMDIV(H78,I78)</f>
         <v>0.0710893129711846</v>
       </c>
     </row>
@@ -5082,7 +5106,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F110" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F112" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5776,6 +5800,13 @@
         <f>SUM(C111,-(C110))</f>
         <v>14</v>
       </c>
+      <c r="E111">
+        <v>1291</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="11"/>
+        <v>27941</v>
+      </c>
       <c r="H111">
         <v>36467</v>
       </c>
@@ -5785,6 +5816,63 @@
       <c r="J111" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.115298640774243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B112">
+        <v>27842</v>
+      </c>
+      <c r="C112">
+        <v>683</v>
+      </c>
+      <c r="D112">
+        <f>SUM(C112,-(C111))</f>
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>1106</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="11"/>
+        <v>29047</v>
+      </c>
+      <c r="H112">
+        <v>38006</v>
+      </c>
+      <c r="I112">
+        <v>324213</v>
+      </c>
+      <c r="J112" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.117225404286688</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B113">
+        <v>28962</v>
+      </c>
+      <c r="C113">
+        <v>691</v>
+      </c>
+      <c r="D113">
+        <f>SUM(C113,-(C112))</f>
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>39384</v>
+      </c>
+      <c r="I113">
+        <v>331410</v>
+      </c>
+      <c r="J113" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0.118837693491446</v>
       </c>
     </row>
   </sheetData>
@@ -5797,7 +5885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{650B5E86-74C4-45A4-93C5-015D319C42F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C04ED0-8FC0-4D98-8263-F8596982FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1170" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3810" yWindow="1335" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$113</c:f>
+              <c:f>Data!$A$2:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -573,16 +573,40 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$113</c:f>
+              <c:f>Data!$B$2:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -918,6 +942,30 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>28962</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>30263</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31850</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>33221</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34546</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>36297</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37809</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39987</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,10 +1002,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$113</c:f>
+              <c:f>Data!$A$2:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1293,16 +1341,40 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$113</c:f>
+              <c:f>Data!$C$2:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1638,6 +1710,30 @@
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5202,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F112" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F120" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5733,7 +5829,7 @@
         <v>653</v>
       </c>
       <c r="D109">
-        <f>SUM(C109,-(C108))</f>
+        <f t="shared" ref="D109:D121" si="12">SUM(C109,-(C108))</f>
         <v>9</v>
       </c>
       <c r="E109">
@@ -5765,7 +5861,7 @@
         <v>659</v>
       </c>
       <c r="D110">
-        <f>SUM(C110,-(C109))</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E110">
@@ -5797,7 +5893,7 @@
         <v>673</v>
       </c>
       <c r="D111">
-        <f>SUM(C111,-(C110))</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="E111">
@@ -5829,7 +5925,7 @@
         <v>683</v>
       </c>
       <c r="D112">
-        <f>SUM(C112,-(C111))</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="E112">
@@ -5850,7 +5946,7 @@
         <v>0.117225404286688</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44007</v>
       </c>
@@ -5861,8 +5957,15 @@
         <v>691</v>
       </c>
       <c r="D113">
-        <f>SUM(C113,-(C112))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
+      </c>
+      <c r="E113">
+        <v>1273</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="11"/>
+        <v>30320</v>
       </c>
       <c r="H113">
         <v>39384</v>
@@ -5873,6 +5976,218 @@
       <c r="J113" s="2" t="str">
         <f t="shared" si="9"/>
         <v>0.118837693491446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B114">
+        <v>30263</v>
+      </c>
+      <c r="C114">
+        <v>692</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1604</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="11"/>
+        <v>31924</v>
+      </c>
+      <c r="K114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B115">
+        <v>31850</v>
+      </c>
+      <c r="C115">
+        <v>707</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>1371</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="11"/>
+        <v>33295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B116">
+        <v>33221</v>
+      </c>
+      <c r="C116">
+        <v>712</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1320</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="11"/>
+        <v>34615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B117">
+        <v>34546</v>
+      </c>
+      <c r="C117">
+        <v>717</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>1741</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="11"/>
+        <v>36356</v>
+      </c>
+      <c r="H117">
+        <v>46064</v>
+      </c>
+      <c r="I117">
+        <v>362330</v>
+      </c>
+      <c r="J117" s="2" t="str">
+        <f t="shared" ref="J117:J121" si="13">IMDIV(H117,I117)</f>
+        <v>0.127132724312091</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B118">
+        <v>36297</v>
+      </c>
+      <c r="C118">
+        <v>735</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>1497</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="11"/>
+        <v>37853</v>
+      </c>
+      <c r="H118">
+        <v>48281</v>
+      </c>
+      <c r="I118">
+        <v>371780</v>
+      </c>
+      <c r="J118" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0.129864435956749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B119">
+        <v>37809</v>
+      </c>
+      <c r="C119">
+        <v>759</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="E119">
+        <v>1883</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="11"/>
+        <v>39736</v>
+      </c>
+      <c r="H119">
+        <v>50261</v>
+      </c>
+      <c r="I119">
+        <v>379431</v>
+      </c>
+      <c r="J119" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0.132464137089484</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B120">
+        <v>39987</v>
+      </c>
+      <c r="C120">
+        <v>777</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>1558</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>41294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B121">
+        <v>41413</v>
+      </c>
+      <c r="C121">
+        <v>787</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>54348</v>
+      </c>
+      <c r="I121">
+        <v>396134</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0.137195999333559</v>
       </c>
     </row>
   </sheetData>
@@ -5885,7 +6200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB3793-553B-4843-A7BA-B321D4D16EE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\covid_dhec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C04ED0-8FC0-4D98-8263-F8596982FF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C6B6C8-75C4-4391-80EE-BBC085C0837B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1335" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
+    <workbookView xWindow="3780" yWindow="1200" windowWidth="23145" windowHeight="13635" xr2:uid="{A422F45D-C4C5-496A-BCAA-39F7CC892315}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$121</c:f>
+              <c:f>Data!$A$2:$A$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -597,16 +597,22 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$121</c:f>
+              <c:f>Data!$B$2:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -966,6 +972,12 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>43260</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,10 +1014,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$A$2:$A$121</c:f>
+              <c:f>Data!$A$2:$A$123</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>43896</c:v>
                 </c:pt>
@@ -1365,16 +1377,22 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$C$2:$C$121</c:f>
+              <c:f>Data!$C$2:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="122"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1734,6 +1752,12 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,10 +2820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCEE3AD-7580-431A-811D-7367E9286BE2}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5226,7 @@
         <v>265</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89:F120" si="11">SUM(F88,E89)</f>
+        <f t="shared" ref="F89:F122" si="11">SUM(F88,E89)</f>
         <v>12363</v>
       </c>
       <c r="H89">
@@ -5829,7 +5853,7 @@
         <v>653</v>
       </c>
       <c r="D109">
-        <f t="shared" ref="D109:D121" si="12">SUM(C109,-(C108))</f>
+        <f t="shared" ref="D109:D123" si="12">SUM(C109,-(C108))</f>
         <v>9</v>
       </c>
       <c r="E109">
@@ -6075,7 +6099,7 @@
         <v>362330</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f t="shared" ref="J117:J121" si="13">IMDIV(H117,I117)</f>
+        <f t="shared" ref="J117:J123" si="13">IMDIV(H117,I117)</f>
         <v>0.127132724312091</v>
       </c>
     </row>
@@ -6179,6 +6203,13 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
+      <c r="E121">
+        <v>1836</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>43130</v>
+      </c>
       <c r="H121">
         <v>54348</v>
       </c>
@@ -6188,6 +6219,63 @@
       <c r="J121" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0.137195999333559</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B122">
+        <v>43260</v>
+      </c>
+      <c r="C122">
+        <v>806</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>1463</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="11"/>
+        <v>44593</v>
+      </c>
+      <c r="H122">
+        <v>56764</v>
+      </c>
+      <c r="I122">
+        <v>463201</v>
+      </c>
+      <c r="J122" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0.12254723111565</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B123">
+        <v>44717</v>
+      </c>
+      <c r="C123">
+        <v>813</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="H123">
+        <v>58491</v>
+      </c>
+      <c r="I123">
+        <v>473543</v>
+      </c>
+      <c r="J123" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>0.123517822035169</v>
       </c>
     </row>
   </sheetData>
